--- a/ValueSet-VSProbSalud.xlsx
+++ b/ValueSet-VSProbSalud.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T09:34:47-03:00</t>
+    <t>2025-01-31T15:38:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-VSProbSalud.xlsx
+++ b/ValueSet-VSProbSalud.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:38:22-03:00</t>
+    <t>2025-03-06T08:20:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-VSProbSalud.xlsx
+++ b/ValueSet-VSProbSalud.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T08:20:26-03:00</t>
+    <t>2025-03-06T09:05:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
